--- a/python training environment/cRIO timing and SNR_v2.xlsx
+++ b/python training environment/cRIO timing and SNR_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\OneDrive\Documents\GitHub\Real-time-LSTM\python training environment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F384E-B3C9-43F5-BC7E-16B1B907D1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32621651-AFCD-482B-AF8E-88057D346473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3684" yWindow="1608" windowWidth="12792" windowHeight="7356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>analog read</t>
   </si>
@@ -149,6 +149,36 @@
   </si>
   <si>
     <t>sigoid timing</t>
+  </si>
+  <si>
+    <t>40 units</t>
+  </si>
+  <si>
+    <t>35 units</t>
+  </si>
+  <si>
+    <t>30 units</t>
+  </si>
+  <si>
+    <t>25 units</t>
+  </si>
+  <si>
+    <t>20 units</t>
+  </si>
+  <si>
+    <t>18 units</t>
+  </si>
+  <si>
+    <t>15 units</t>
+  </si>
+  <si>
+    <t>12 units</t>
+  </si>
+  <si>
+    <t>10 units</t>
+  </si>
+  <si>
+    <t>8 units</t>
   </si>
 </sst>
 </file>
@@ -3839,7 +3869,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4219,10 +4249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="H2" sqref="H2:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4232,7 +4262,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -4243,7 +4273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>20</v>
       </c>
@@ -4253,8 +4283,38 @@
       <c r="D2">
         <v>12.740600000000001</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>30</v>
       </c>
@@ -4264,8 +4324,41 @@
       <c r="D3">
         <v>14.8826</v>
       </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>292.61500000000001</v>
+      </c>
+      <c r="J3">
+        <v>264.67899999999997</v>
+      </c>
+      <c r="K3">
+        <v>239.16200000000001</v>
+      </c>
+      <c r="L3">
+        <v>216.06399999999999</v>
+      </c>
+      <c r="M3">
+        <v>195.38399999999999</v>
+      </c>
+      <c r="N3">
+        <v>187.78899999999999</v>
+      </c>
+      <c r="O3">
+        <v>177.12200000000001</v>
+      </c>
+      <c r="P3">
+        <v>167.327</v>
+      </c>
+      <c r="Q3">
+        <v>161.28</v>
+      </c>
+      <c r="R3">
+        <v>155.62</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>40</v>
       </c>
@@ -4275,8 +4368,41 @@
       <c r="D4">
         <v>17.2987</v>
       </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>631.66899999999998</v>
+      </c>
+      <c r="J4">
+        <v>561.52700000000004</v>
+      </c>
+      <c r="K4">
+        <v>498.64100000000002</v>
+      </c>
+      <c r="L4">
+        <v>443.01100000000002</v>
+      </c>
+      <c r="M4">
+        <v>394.637</v>
+      </c>
+      <c r="N4">
+        <v>377.31900000000002</v>
+      </c>
+      <c r="O4">
+        <v>353.51900000000001</v>
+      </c>
+      <c r="P4">
+        <v>332.33100000000002</v>
+      </c>
+      <c r="Q4">
+        <v>319.65699999999998</v>
+      </c>
+      <c r="R4">
+        <v>308.14400000000001</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>50</v>
       </c>
@@ -4286,8 +4412,41 @@
       <c r="D5">
         <v>19.535</v>
       </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>970.72199999999998</v>
+      </c>
+      <c r="J5">
+        <v>858.37400000000002</v>
+      </c>
+      <c r="K5">
+        <v>758.12</v>
+      </c>
+      <c r="L5">
+        <v>669.95899999999995</v>
+      </c>
+      <c r="M5">
+        <v>593.89099999999996</v>
+      </c>
+      <c r="N5">
+        <v>566.85</v>
+      </c>
+      <c r="O5">
+        <v>529.91600000000005</v>
+      </c>
+      <c r="P5">
+        <v>497.33600000000001</v>
+      </c>
+      <c r="Q5">
+        <v>478.03500000000003</v>
+      </c>
+      <c r="R5">
+        <v>460.66800000000001</v>
+      </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>60</v>
       </c>
@@ -4298,7 +4457,7 @@
         <v>21.561699999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>70</v>
       </c>
@@ -4309,7 +4468,7 @@
         <v>24.110800000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>80</v>
       </c>
@@ -4320,7 +4479,7 @@
         <v>26.612100000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>90</v>
       </c>
@@ -4331,7 +4490,7 @@
         <v>28.531500000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>100</v>
       </c>
@@ -4342,7 +4501,7 @@
         <v>31.134</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>110</v>
       </c>
@@ -4353,7 +4512,7 @@
         <v>33.309899999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>120</v>
       </c>
@@ -4366,7 +4525,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/python training environment/cRIO timing and SNR_v2.xlsx
+++ b/python training environment/cRIO timing and SNR_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32621651-AFCD-482B-AF8E-88057D346473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E572F-C5D4-4B64-B556-61957195FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3684" yWindow="1608" windowWidth="12792" windowHeight="7356" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>analog read</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>8 units</t>
+  </si>
+  <si>
+    <t>vector-vector timing</t>
   </si>
 </sst>
 </file>
@@ -1781,6 +1784,569 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vector-vector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> timing with increasing vector size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3718527574365245E-2"/>
+                  <c:y val="-6.7987472274599156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'experimental timing v2'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'experimental timing v2'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.2967500000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.31081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2822300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2728700000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3338400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4181800000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4628899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4590399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5343099999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6837299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B9E-483D-B17F-FFBD5785BF4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="860728575"/>
+        <c:axId val="860731071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="860728575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vector size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860731071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="860731071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Timing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860728575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1901,6 +2467,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2934,6 +3540,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3561,6 +4683,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>102219</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321FE86C-EA99-0A9E-9444-47E478A8E873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4251,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4260,6 +5418,7 @@
     <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
@@ -4272,6 +5431,9 @@
       <c r="D1" t="s">
         <v>36</v>
       </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2">
@@ -4283,6 +5445,9 @@
       <c r="D2">
         <v>12.740600000000001</v>
       </c>
+      <c r="E2">
+        <v>7.2967500000000003</v>
+      </c>
       <c r="I2" t="s">
         <v>37</v>
       </c>
@@ -4324,6 +5489,9 @@
       <c r="D3">
         <v>14.8826</v>
       </c>
+      <c r="E3">
+        <v>7.31081</v>
+      </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
@@ -4368,6 +5536,9 @@
       <c r="D4">
         <v>17.2987</v>
       </c>
+      <c r="E4">
+        <v>7.2822300000000002</v>
+      </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
@@ -4412,6 +5583,9 @@
       <c r="D5">
         <v>19.535</v>
       </c>
+      <c r="E5">
+        <v>7.2728700000000002</v>
+      </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
@@ -4456,6 +5630,9 @@
       <c r="D6">
         <v>21.561699999999998</v>
       </c>
+      <c r="E6">
+        <v>7.3338400000000004</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -4467,6 +5644,9 @@
       <c r="D7">
         <v>24.110800000000001</v>
       </c>
+      <c r="E7">
+        <v>7.4181800000000004</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -4478,6 +5658,9 @@
       <c r="D8">
         <v>26.612100000000002</v>
       </c>
+      <c r="E8">
+        <v>7.4628899999999998</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -4489,6 +5672,9 @@
       <c r="D9">
         <v>28.531500000000001</v>
       </c>
+      <c r="E9">
+        <v>7.4590399999999999</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -4500,6 +5686,9 @@
       <c r="D10">
         <v>31.134</v>
       </c>
+      <c r="E10">
+        <v>7.5343099999999996</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -4511,6 +5700,9 @@
       <c r="D11">
         <v>33.309899999999999</v>
       </c>
+      <c r="E11">
+        <v>7.6310000000000002</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -4521,6 +5713,9 @@
       </c>
       <c r="D12">
         <v>35.643300000000004</v>
+      </c>
+      <c r="E12">
+        <v>7.6837299999999997</v>
       </c>
     </row>
   </sheetData>
@@ -5184,8 +6379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AN10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/python training environment/cRIO timing and SNR_v2.xlsx
+++ b/python training environment/cRIO timing and SNR_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E572F-C5D4-4B64-B556-61957195FF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885146FD-ABBC-45C6-A744-B3C655CEA2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5409,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/python training environment/cRIO timing and SNR_v2.xlsx
+++ b/python training environment/cRIO timing and SNR_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dncob\Documents\GitHub\Real-time-LSTM\python training environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885146FD-ABBC-45C6-A744-B3C655CEA2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB33F07-CB32-499E-99A8-9E4C45E0F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experimental timing" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>analog read</t>
   </si>
@@ -151,37 +151,10 @@
     <t>sigoid timing</t>
   </si>
   <si>
-    <t>40 units</t>
+    <t>vector-vector add</t>
   </si>
   <si>
-    <t>35 units</t>
-  </si>
-  <si>
-    <t>30 units</t>
-  </si>
-  <si>
-    <t>25 units</t>
-  </si>
-  <si>
-    <t>20 units</t>
-  </si>
-  <si>
-    <t>18 units</t>
-  </si>
-  <si>
-    <t>15 units</t>
-  </si>
-  <si>
-    <t>12 units</t>
-  </si>
-  <si>
-    <t>10 units</t>
-  </si>
-  <si>
-    <t>8 units</t>
-  </si>
-  <si>
-    <t>vector-vector timing</t>
+    <t>vector-vector multiply</t>
   </si>
 </sst>
 </file>
@@ -230,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -241,6 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,7 +1797,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> timing with increasing vector size</a:t>
+              <a:t> multiply timing with increasing vector size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2040,6 +2014,569 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B9E-483D-B17F-FFBD5785BF4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="860728575"/>
+        <c:axId val="860731071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="860728575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vector size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860731071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="860731071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Timing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="860728575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vector-vector</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> timing with increasing vector size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3718527574365245E-2"/>
+                  <c:y val="-6.7987472274599156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'experimental timing v2'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'experimental timing v2'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.5450999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5290400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.57796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4941500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6964800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5625099999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6890799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6874000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8367699999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6080199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8835499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99DB-4A98-8E16-8E32B013B5CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,6 +3044,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4056,6 +4633,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4576,15 +5669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>86042</xdr:rowOff>
+      <xdr:colOff>542290</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180340</xdr:colOff>
+      <xdr:colOff>500380</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>116522</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4690,16 +5783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>102219</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>105937</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504153</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>171659</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>61332</xdr:rowOff>
+      <xdr:rowOff>178563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4719,6 +5812,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373090</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>45093</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152484</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BDC42AF-8855-47AA-A14E-A2D3F3C1C6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5027,7 +6158,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5409,8 +6540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E12"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5418,7 +6549,8 @@
     <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
@@ -5432,7 +6564,10 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
@@ -5448,35 +6583,41 @@
       <c r="E2">
         <v>7.2967500000000003</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F2">
+        <v>7.5450999999999997</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+      <c r="R2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -5492,38 +6633,41 @@
       <c r="E3">
         <v>7.31081</v>
       </c>
+      <c r="F3">
+        <v>7.5290400000000002</v>
+      </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3">
-        <v>292.61500000000001</v>
+        <v>354.755</v>
       </c>
       <c r="J3">
-        <v>264.67899999999997</v>
+        <v>326.81</v>
       </c>
       <c r="K3">
-        <v>239.16200000000001</v>
+        <v>301.28399999999999</v>
       </c>
       <c r="L3">
-        <v>216.06399999999999</v>
+        <v>278.17599999999999</v>
       </c>
       <c r="M3">
-        <v>195.38399999999999</v>
+        <v>257.48700000000002</v>
       </c>
       <c r="N3">
-        <v>187.78899999999999</v>
+        <v>249.88900000000001</v>
       </c>
       <c r="O3">
-        <v>177.12200000000001</v>
+        <v>239.21700000000001</v>
       </c>
       <c r="P3">
-        <v>167.327</v>
+        <v>229.416</v>
       </c>
       <c r="Q3">
-        <v>161.28</v>
+        <v>223.36500000000001</v>
       </c>
       <c r="R3">
-        <v>155.62</v>
+        <v>217.702</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
@@ -5539,38 +6683,41 @@
       <c r="E4">
         <v>7.2822300000000002</v>
       </c>
+      <c r="F4">
+        <v>7.57796</v>
+      </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4">
-        <v>631.66899999999998</v>
+        <v>755.94799999999998</v>
       </c>
       <c r="J4">
-        <v>561.52700000000004</v>
+        <v>685.78800000000001</v>
       </c>
       <c r="K4">
-        <v>498.64100000000002</v>
+        <v>622.88499999999999</v>
       </c>
       <c r="L4">
-        <v>443.01100000000002</v>
+        <v>567.23699999999997</v>
       </c>
       <c r="M4">
-        <v>394.637</v>
+        <v>518.84500000000003</v>
       </c>
       <c r="N4">
-        <v>377.31900000000002</v>
+        <v>501.52</v>
       </c>
       <c r="O4">
-        <v>353.51900000000001</v>
+        <v>477.709</v>
       </c>
       <c r="P4">
-        <v>332.33100000000002</v>
+        <v>456.51</v>
       </c>
       <c r="Q4">
-        <v>319.65699999999998</v>
+        <v>443.82900000000001</v>
       </c>
       <c r="R4">
-        <v>308.14400000000001</v>
+        <v>432.30799999999999</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -5586,38 +6733,41 @@
       <c r="E5">
         <v>7.2728700000000002</v>
       </c>
+      <c r="F5">
+        <v>7.4941500000000003</v>
+      </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
       <c r="I5">
-        <v>970.72199999999998</v>
+        <v>1157.1400000000001</v>
       </c>
       <c r="J5">
-        <v>858.37400000000002</v>
+        <v>1044.77</v>
       </c>
       <c r="K5">
-        <v>758.12</v>
+        <v>944.48500000000001</v>
       </c>
       <c r="L5">
-        <v>669.95899999999995</v>
+        <v>856.29700000000003</v>
       </c>
       <c r="M5">
-        <v>593.89099999999996</v>
+        <v>780.202</v>
       </c>
       <c r="N5">
-        <v>566.85</v>
+        <v>753.15</v>
       </c>
       <c r="O5">
-        <v>529.91600000000005</v>
+        <v>716.2</v>
       </c>
       <c r="P5">
-        <v>497.33600000000001</v>
+        <v>683.60400000000004</v>
       </c>
       <c r="Q5">
-        <v>478.03500000000003</v>
+        <v>664.29200000000003</v>
       </c>
       <c r="R5">
-        <v>460.66800000000001</v>
+        <v>646.91399999999999</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
@@ -5633,6 +6783,9 @@
       <c r="E6">
         <v>7.3338400000000004</v>
       </c>
+      <c r="F6">
+        <v>7.6964800000000002</v>
+      </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7">
@@ -5647,6 +6800,9 @@
       <c r="E7">
         <v>7.4181800000000004</v>
       </c>
+      <c r="F7">
+        <v>7.5625099999999996</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8">
@@ -5661,6 +6817,9 @@
       <c r="E8">
         <v>7.4628899999999998</v>
       </c>
+      <c r="F8">
+        <v>7.6890799999999997</v>
+      </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9">
@@ -5675,6 +6834,9 @@
       <c r="E9">
         <v>7.4590399999999999</v>
       </c>
+      <c r="F9">
+        <v>7.6874000000000002</v>
+      </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10">
@@ -5689,6 +6851,9 @@
       <c r="E10">
         <v>7.5343099999999996</v>
       </c>
+      <c r="F10">
+        <v>7.8367699999999996</v>
+      </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11">
@@ -5703,6 +6868,9 @@
       <c r="E11">
         <v>7.6310000000000002</v>
       </c>
+      <c r="F11">
+        <v>7.6080199999999998</v>
+      </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -5716,6 +6884,9 @@
       </c>
       <c r="E12">
         <v>7.6837299999999997</v>
+      </c>
+      <c r="F12">
+        <v>7.8835499999999996</v>
       </c>
     </row>
   </sheetData>
@@ -6377,10 +7548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="C1:AN10"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6391,13 +7562,7 @@
     <col min="30" max="30" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1">
-        <v>29.143000000000001</v>
-      </c>
+    <row r="1" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>29</v>
       </c>
@@ -6408,13 +7573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>3.49E-2</v>
-      </c>
+    <row r="2" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>26</v>
       </c>
@@ -6515,144 +7674,108 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0.50060000000000004</v>
-      </c>
+    <row r="3" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <f>$B$1+$B$2*(68*E2+4*E2^2)+$B$3*5*E2</f>
-        <v>447.55100000000004</v>
+        <v>354.755</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:N3" si="0">$B$1+$B$2*(68*F2+4*F2^2)+$B$3*5*F2</f>
-        <v>370.82000000000005</v>
+        <v>326.81</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>301.06900000000002</v>
+        <v>301.28399999999999</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>238.298</v>
+        <v>278.17599999999999</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>182.50700000000001</v>
+        <v>257.48700000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>162.14500000000001</v>
+        <v>249.88900000000001</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>133.696</v>
+        <v>239.21700000000001</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>107.75980000000001</v>
+        <v>229.416</v>
       </c>
       <c r="M3">
-        <f t="shared" si="0"/>
-        <v>91.865000000000009</v>
+        <v>223.36500000000001</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>77.087000000000003</v>
+        <v>217.702</v>
       </c>
       <c r="P3" t="s">
         <v>25</v>
       </c>
       <c r="R3">
-        <f>$B$1+$B$2*(72*R2+12*R2^2)+$B$3*10*R2</f>
-        <v>999.97500000000002</v>
+        <v>755.94799999999998</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:AA3" si="1">$B$1+$B$2*(72*S2+12*S2^2)+$B$3*10*S2</f>
-        <v>805.33100000000002</v>
+        <v>685.78800000000001</v>
       </c>
       <c r="T3">
-        <f t="shared" si="1"/>
-        <v>631.62699999999995</v>
+        <v>622.88499999999999</v>
       </c>
       <c r="U3">
-        <f t="shared" si="1"/>
-        <v>478.86299999999994</v>
+        <v>567.23699999999997</v>
       </c>
       <c r="V3">
-        <f t="shared" si="1"/>
-        <v>347.03899999999999</v>
+        <v>518.84500000000003</v>
       </c>
       <c r="W3">
-        <f t="shared" si="1"/>
-        <v>300.17259999999999</v>
+        <v>501.52</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
-        <v>236.155</v>
+        <v>477.709</v>
       </c>
       <c r="Y3">
-        <f t="shared" si="1"/>
-        <v>179.67580000000001</v>
+        <v>456.51</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="1"/>
-        <v>146.21100000000001</v>
+        <v>443.82900000000001</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="1"/>
-        <v>116.0966</v>
+        <v>432.30799999999999</v>
       </c>
       <c r="AC3" t="s">
         <v>25</v>
       </c>
       <c r="AE3">
-        <f>$B$1+$B$2*(76*AE2+20*AE2^2)+$B$3*15*AE2</f>
-        <v>1552.3989999999999</v>
+        <v>1157.1400000000001</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AN3" si="2">$B$1+$B$2*(76*AF2+20*AF2^2)+$B$3*15*AF2</f>
-        <v>1239.8420000000001</v>
+        <v>1044.77</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
-        <v>962.18500000000006</v>
+        <v>944.48500000000001</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="2"/>
-        <v>719.428</v>
+        <v>856.29700000000003</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
-        <v>511.57099999999997</v>
+        <v>780.202</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="2"/>
-        <v>438.2002</v>
+        <v>753.15</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="2"/>
-        <v>338.61400000000003</v>
+        <v>716.2</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="2"/>
-        <v>251.59180000000001</v>
+        <v>683.60400000000004</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="2"/>
-        <v>200.55700000000002</v>
+        <v>664.29200000000003</v>
       </c>
       <c r="AN3">
-        <f t="shared" si="2"/>
-        <v>155.1062</v>
+        <v>646.91399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -6762,7 +7885,7 @@
         <v>21.7917929020294</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D5">
         <v>750</v>
       </c>
@@ -6802,7 +7925,7 @@
       <c r="R5" s="4">
         <v>21.553553140013602</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="2">
         <v>22.7374398643768</v>
       </c>
       <c r="T5" s="1">
@@ -6841,13 +7964,13 @@
       <c r="AG5" s="4">
         <v>20.488963825109298</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="4">
         <v>24.3330003187511</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="4">
         <v>22.182494994965801</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="4">
         <v>21.831568907987901</v>
       </c>
       <c r="AK5" s="1">
@@ -6863,7 +7986,7 @@
         <v>22.0411775621447</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D6">
         <v>500</v>
       </c>
@@ -6909,13 +8032,13 @@
       <c r="T6" s="4">
         <v>21.572898643278702</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="4">
         <v>23.425106647288899</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="4">
         <v>23.912566332558701</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="4">
         <v>22.454856017997201</v>
       </c>
       <c r="X6" s="1">
@@ -6948,27 +8071,27 @@
       <c r="AI6" s="4">
         <v>23.021440863921399</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="4">
         <v>24.847631989857</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="4">
         <v>23.089111320663399</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="4">
         <v>22.3811018355545</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="4">
         <v>22.154086063508899</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="4">
         <v>21.797868119922299</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>400</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>22.6718305371888</v>
       </c>
       <c r="F7">
@@ -7013,22 +8136,22 @@
       <c r="U7" s="4">
         <v>22.520660410302899</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="4">
         <v>21.979155231846701</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="4">
         <v>21.578736115519899</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="4">
         <v>23.521078453433699</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="4">
         <v>20.9641859032503</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="4">
         <v>20.936556545047999</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="4">
         <v>20.965830111008199</v>
       </c>
       <c r="AD7">
@@ -7052,20 +8175,20 @@
       <c r="AJ7" s="4">
         <v>23.653732039883401</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="4">
         <v>21.528320610316701</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="4">
         <v>22.7145213494038</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="4">
         <v>21.369490355091699</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="4">
         <v>21.2718062052008</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>300</v>
       </c>
@@ -7120,16 +8243,16 @@
       <c r="W8" s="4">
         <v>20.720424999576998</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="4">
         <v>21.366096018824098</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="4">
         <v>22.428649638692999</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8" s="4">
         <v>18.550030520799599</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="4">
         <v>20.999290384405999</v>
       </c>
       <c r="AD8">
@@ -7156,17 +8279,17 @@
       <c r="AK8" s="4">
         <v>20.8776359782063</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="4">
         <v>22.404339359223101</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AM8" s="4">
         <v>20.457503960372499</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AN8" s="4">
         <v>18.667517934899699</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>200</v>
       </c>
@@ -7224,13 +8347,13 @@
       <c r="X9" s="4">
         <v>18.295983941049499</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Y9" s="4">
         <v>19.5482586512532</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9" s="4">
         <v>21.022936355153401</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="4">
         <v>20.597257695925599</v>
       </c>
       <c r="AD9">
@@ -7260,14 +8383,14 @@
       <c r="AL9" s="4">
         <v>20.343674666274101</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9" s="4">
         <v>22.126735273993699</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9" s="4">
         <v>20.4311544471317</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:40" x14ac:dyDescent="0.3">
       <c r="D10">
         <v>100</v>
       </c>
@@ -7295,10 +8418,10 @@
       <c r="L10" s="6">
         <v>16.233640622426801</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>10.652721344744901</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>7.4665071763712696</v>
       </c>
       <c r="Q10">
